--- a/q3_show.xlsx
+++ b/q3_show.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\Project_github\MTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D513CD7-B2FF-4C90-9B5E-EB9615048DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF09BF42-FE2A-40A0-A5FB-358593901DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="4365" windowWidth="14595" windowHeight="11835" xr2:uid="{3DD2D511-240D-49A5-AACE-43799294E948}"/>
+    <workbookView xWindow="2850" yWindow="3165" windowWidth="14595" windowHeight="11835" xr2:uid="{0D720B10-140B-4550-AEF7-E8B45A8FC55F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,618 +388,3018 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765C7ECD-179B-446A-991C-32F281E9D159}">
-  <dimension ref="A1:GS1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C67FB-9C97-47B5-B0D0-18CD72F8663B}">
+  <dimension ref="A1:ALM1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:GS1"/>
+      <selection sqref="A1:ALM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:201" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1001" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>-0.05</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B1">
-        <v>-4.9500000000000002E-2</v>
+        <v>-2.495E-2</v>
       </c>
       <c r="C1">
-        <v>-4.9000000000000002E-2</v>
+        <v>-2.4900000000000002E-2</v>
       </c>
       <c r="D1">
-        <v>-4.8500000000000001E-2</v>
+        <v>-2.4850000000000001E-2</v>
       </c>
       <c r="E1">
-        <v>-4.8000000000000001E-2</v>
+        <v>-2.4800000000000003E-2</v>
       </c>
       <c r="F1">
-        <v>-4.7500000000000001E-2</v>
+        <v>-2.4750000000000001E-2</v>
       </c>
       <c r="G1">
-        <v>-4.7E-2</v>
+        <v>-2.47E-2</v>
       </c>
       <c r="H1">
-        <v>-4.65E-2</v>
+        <v>-2.4650000000000002E-2</v>
       </c>
       <c r="I1">
-        <v>-4.5999999999999999E-2</v>
+        <v>-2.46E-2</v>
       </c>
       <c r="J1">
-        <v>-4.5499999999999999E-2</v>
+        <v>-2.4550000000000002E-2</v>
       </c>
       <c r="K1">
-        <v>-4.5000000000000005E-2</v>
+        <v>-2.4500000000000001E-2</v>
       </c>
       <c r="L1">
-        <v>-4.4500000000000005E-2</v>
+        <v>-2.4450000000000003E-2</v>
       </c>
       <c r="M1">
-        <v>-4.4000000000000004E-2</v>
+        <v>-2.4400000000000002E-2</v>
       </c>
       <c r="N1">
-        <v>-4.3500000000000004E-2</v>
+        <v>-2.435E-2</v>
       </c>
       <c r="O1">
-        <v>-4.3000000000000003E-2</v>
+        <v>-2.4300000000000002E-2</v>
       </c>
       <c r="P1">
-        <v>-4.2500000000000003E-2</v>
+        <v>-2.4250000000000001E-2</v>
       </c>
       <c r="Q1">
-        <v>-4.2000000000000003E-2</v>
+        <v>-2.4200000000000003E-2</v>
       </c>
       <c r="R1">
-        <v>-4.1500000000000002E-2</v>
+        <v>-2.4150000000000001E-2</v>
       </c>
       <c r="S1">
-        <v>-4.1000000000000002E-2</v>
+        <v>-2.41E-2</v>
       </c>
       <c r="T1">
-        <v>-4.0500000000000001E-2</v>
+        <v>-2.4050000000000002E-2</v>
       </c>
       <c r="U1">
-        <v>-0.04</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="V1">
-        <v>-3.95E-2</v>
+        <v>-2.3950000000000003E-2</v>
       </c>
       <c r="W1">
-        <v>-3.9E-2</v>
+        <v>-2.3900000000000001E-2</v>
       </c>
       <c r="X1">
-        <v>-3.85E-2</v>
+        <v>-2.385E-2</v>
       </c>
       <c r="Y1">
-        <v>-3.7999999999999999E-2</v>
+        <v>-2.3800000000000002E-2</v>
       </c>
       <c r="Z1">
-        <v>-3.7500000000000006E-2</v>
+        <v>-2.375E-2</v>
       </c>
       <c r="AA1">
-        <v>-3.7000000000000005E-2</v>
+        <v>-2.3700000000000002E-2</v>
       </c>
       <c r="AB1">
-        <v>-3.6500000000000005E-2</v>
+        <v>-2.3650000000000001E-2</v>
       </c>
       <c r="AC1">
-        <v>-3.6000000000000004E-2</v>
+        <v>-2.3600000000000003E-2</v>
       </c>
       <c r="AD1">
-        <v>-3.5500000000000004E-2</v>
+        <v>-2.3550000000000001E-2</v>
       </c>
       <c r="AE1">
-        <v>-3.5000000000000003E-2</v>
+        <v>-2.35E-2</v>
       </c>
       <c r="AF1">
-        <v>-3.4500000000000003E-2</v>
+        <v>-2.3450000000000002E-2</v>
       </c>
       <c r="AG1">
-        <v>-3.4000000000000002E-2</v>
+        <v>-2.3400000000000001E-2</v>
       </c>
       <c r="AH1">
-        <v>-3.3500000000000002E-2</v>
+        <v>-2.3350000000000003E-2</v>
       </c>
       <c r="AI1">
-        <v>-3.3000000000000002E-2</v>
+        <v>-2.3300000000000001E-2</v>
       </c>
       <c r="AJ1">
-        <v>-3.2500000000000001E-2</v>
+        <v>-2.325E-2</v>
       </c>
       <c r="AK1">
-        <v>-3.2000000000000001E-2</v>
+        <v>-2.3200000000000002E-2</v>
       </c>
       <c r="AL1">
-        <v>-3.15E-2</v>
+        <v>-2.315E-2</v>
       </c>
       <c r="AM1">
-        <v>-3.1E-2</v>
+        <v>-2.3100000000000002E-2</v>
       </c>
       <c r="AN1">
-        <v>-3.0499999999999999E-2</v>
+        <v>-2.3050000000000001E-2</v>
       </c>
       <c r="AO1">
-        <v>-3.0000000000000002E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="AP1">
-        <v>-2.9499999999999998E-2</v>
+        <v>-2.2950000000000002E-2</v>
       </c>
       <c r="AQ1">
-        <v>-2.9000000000000001E-2</v>
+        <v>-2.29E-2</v>
       </c>
       <c r="AR1">
-        <v>-2.8500000000000004E-2</v>
+        <v>-2.2850000000000002E-2</v>
       </c>
       <c r="AS1">
-        <v>-2.8000000000000001E-2</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="AT1">
-        <v>-2.7500000000000004E-2</v>
+        <v>-2.2750000000000003E-2</v>
       </c>
       <c r="AU1">
-        <v>-2.7E-2</v>
+        <v>-2.2700000000000001E-2</v>
       </c>
       <c r="AV1">
-        <v>-2.6500000000000003E-2</v>
+        <v>-2.265E-2</v>
       </c>
       <c r="AW1">
-        <v>-2.5999999999999999E-2</v>
+        <v>-2.2600000000000002E-2</v>
       </c>
       <c r="AX1">
-        <v>-2.5500000000000002E-2</v>
+        <v>-2.2550000000000001E-2</v>
       </c>
       <c r="AY1">
-        <v>-2.5000000000000001E-2</v>
+        <v>-2.2500000000000003E-2</v>
       </c>
       <c r="AZ1">
-        <v>-2.4500000000000001E-2</v>
+        <v>-2.2450000000000001E-2</v>
       </c>
       <c r="BA1">
-        <v>-2.4E-2</v>
+        <v>-2.2400000000000003E-2</v>
       </c>
       <c r="BB1">
-        <v>-2.35E-2</v>
+        <v>-2.2350000000000002E-2</v>
       </c>
       <c r="BC1">
-        <v>-2.3E-2</v>
+        <v>-2.23E-2</v>
       </c>
       <c r="BD1">
-        <v>-2.2500000000000003E-2</v>
+        <v>-2.2250000000000002E-2</v>
       </c>
       <c r="BE1">
-        <v>-2.1999999999999999E-2</v>
+        <v>-2.2200000000000001E-2</v>
       </c>
       <c r="BF1">
+        <v>-2.2150000000000003E-2</v>
+      </c>
+      <c r="BG1">
+        <v>-2.2100000000000002E-2</v>
+      </c>
+      <c r="BH1">
+        <v>-2.205E-2</v>
+      </c>
+      <c r="BI1">
+        <v>-2.2000000000000002E-2</v>
+      </c>
+      <c r="BJ1">
+        <v>-2.1950000000000001E-2</v>
+      </c>
+      <c r="BK1">
+        <v>-2.1900000000000003E-2</v>
+      </c>
+      <c r="BL1">
+        <v>-2.1850000000000001E-2</v>
+      </c>
+      <c r="BM1">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="BN1">
+        <v>-2.1750000000000002E-2</v>
+      </c>
+      <c r="BO1">
+        <v>-2.1700000000000001E-2</v>
+      </c>
+      <c r="BP1">
+        <v>-2.1650000000000003E-2</v>
+      </c>
+      <c r="BQ1">
+        <v>-2.1600000000000001E-2</v>
+      </c>
+      <c r="BR1">
+        <v>-2.155E-2</v>
+      </c>
+      <c r="BS1">
         <v>-2.1500000000000002E-2</v>
       </c>
-      <c r="BG1">
-        <v>-2.0999999999999998E-2</v>
-      </c>
-      <c r="BH1">
+      <c r="BT1">
+        <v>-2.145E-2</v>
+      </c>
+      <c r="BU1">
+        <v>-2.1400000000000002E-2</v>
+      </c>
+      <c r="BV1">
+        <v>-2.1350000000000001E-2</v>
+      </c>
+      <c r="BW1">
+        <v>-2.1299999999999999E-2</v>
+      </c>
+      <c r="BX1">
+        <v>-2.1250000000000002E-2</v>
+      </c>
+      <c r="BY1">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="BZ1">
+        <v>-2.1150000000000002E-2</v>
+      </c>
+      <c r="CA1">
+        <v>-2.1100000000000001E-2</v>
+      </c>
+      <c r="CB1">
+        <v>-2.1049999999999999E-2</v>
+      </c>
+      <c r="CC1">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="CD1">
+        <v>-2.0950000000000003E-2</v>
+      </c>
+      <c r="CE1">
+        <v>-2.0900000000000002E-2</v>
+      </c>
+      <c r="CF1">
+        <v>-2.085E-2</v>
+      </c>
+      <c r="CG1">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="CH1">
+        <v>-2.0750000000000001E-2</v>
+      </c>
+      <c r="CI1">
+        <v>-2.0700000000000003E-2</v>
+      </c>
+      <c r="CJ1">
+        <v>-2.0650000000000002E-2</v>
+      </c>
+      <c r="CK1">
+        <v>-2.06E-2</v>
+      </c>
+      <c r="CL1">
+        <v>-2.0550000000000002E-2</v>
+      </c>
+      <c r="CM1">
         <v>-2.0500000000000001E-2</v>
       </c>
-      <c r="BI1">
-        <v>-2.0000000000000004E-2</v>
-      </c>
-      <c r="BJ1">
-        <v>-1.95E-2</v>
-      </c>
-      <c r="BK1">
+      <c r="CN1">
+        <v>-2.0450000000000003E-2</v>
+      </c>
+      <c r="CO1">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+      <c r="CP1">
+        <v>-2.035E-2</v>
+      </c>
+      <c r="CQ1">
+        <v>-2.0300000000000002E-2</v>
+      </c>
+      <c r="CR1">
+        <v>-2.0250000000000001E-2</v>
+      </c>
+      <c r="CS1">
+        <v>-2.0200000000000003E-2</v>
+      </c>
+      <c r="CT1">
+        <v>-2.0150000000000001E-2</v>
+      </c>
+      <c r="CU1">
+        <v>-2.01E-2</v>
+      </c>
+      <c r="CV1">
+        <v>-2.0050000000000002E-2</v>
+      </c>
+      <c r="CW1">
+        <v>-0.02</v>
+      </c>
+      <c r="CX1">
+        <v>-1.9950000000000002E-2</v>
+      </c>
+      <c r="CY1">
+        <v>-1.9900000000000001E-2</v>
+      </c>
+      <c r="CZ1">
+        <v>-1.985E-2</v>
+      </c>
+      <c r="DA1">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="DB1">
+        <v>-1.975E-2</v>
+      </c>
+      <c r="DC1">
+        <v>-1.9700000000000002E-2</v>
+      </c>
+      <c r="DD1">
+        <v>-1.9650000000000001E-2</v>
+      </c>
+      <c r="DE1">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="DF1">
+        <v>-1.9550000000000001E-2</v>
+      </c>
+      <c r="DG1">
+        <v>-1.9500000000000003E-2</v>
+      </c>
+      <c r="DH1">
+        <v>-1.9450000000000002E-2</v>
+      </c>
+      <c r="DI1">
+        <v>-1.9400000000000001E-2</v>
+      </c>
+      <c r="DJ1">
+        <v>-1.9349999999999999E-2</v>
+      </c>
+      <c r="DK1">
+        <v>-1.9300000000000001E-2</v>
+      </c>
+      <c r="DL1">
+        <v>-1.9250000000000003E-2</v>
+      </c>
+      <c r="DM1">
+        <v>-1.9200000000000002E-2</v>
+      </c>
+      <c r="DN1">
+        <v>-1.915E-2</v>
+      </c>
+      <c r="DO1">
+        <v>-1.9099999999999999E-2</v>
+      </c>
+      <c r="DP1">
+        <v>-1.9050000000000001E-2</v>
+      </c>
+      <c r="DQ1">
         <v>-1.9000000000000003E-2</v>
       </c>
-      <c r="BL1">
+      <c r="DR1">
+        <v>-1.8950000000000002E-2</v>
+      </c>
+      <c r="DS1">
+        <v>-1.89E-2</v>
+      </c>
+      <c r="DT1">
+        <v>-1.8850000000000002E-2</v>
+      </c>
+      <c r="DU1">
+        <v>-1.8800000000000001E-2</v>
+      </c>
+      <c r="DV1">
+        <v>-1.8750000000000003E-2</v>
+      </c>
+      <c r="DW1">
+        <v>-1.8700000000000001E-2</v>
+      </c>
+      <c r="DX1">
+        <v>-1.865E-2</v>
+      </c>
+      <c r="DY1">
+        <v>-1.8600000000000002E-2</v>
+      </c>
+      <c r="DZ1">
+        <v>-1.8550000000000001E-2</v>
+      </c>
+      <c r="EA1">
         <v>-1.8500000000000003E-2</v>
       </c>
-      <c r="BM1">
+      <c r="EB1">
+        <v>-1.8450000000000001E-2</v>
+      </c>
+      <c r="EC1">
+        <v>-1.84E-2</v>
+      </c>
+      <c r="ED1">
+        <v>-1.8350000000000002E-2</v>
+      </c>
+      <c r="EE1">
+        <v>-1.83E-2</v>
+      </c>
+      <c r="EF1">
+        <v>-1.8250000000000002E-2</v>
+      </c>
+      <c r="EG1">
+        <v>-1.8200000000000001E-2</v>
+      </c>
+      <c r="EH1">
+        <v>-1.8149999999999999E-2</v>
+      </c>
+      <c r="EI1">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="EJ1">
+        <v>-1.805E-2</v>
+      </c>
+      <c r="EK1">
         <v>-1.8000000000000002E-2</v>
       </c>
-      <c r="BN1">
+      <c r="EL1">
+        <v>-1.7950000000000001E-2</v>
+      </c>
+      <c r="EM1">
+        <v>-1.7899999999999999E-2</v>
+      </c>
+      <c r="EN1">
+        <v>-1.7850000000000001E-2</v>
+      </c>
+      <c r="EO1">
+        <v>-1.7800000000000003E-2</v>
+      </c>
+      <c r="EP1">
+        <v>-1.7750000000000002E-2</v>
+      </c>
+      <c r="EQ1">
+        <v>-1.77E-2</v>
+      </c>
+      <c r="ER1">
+        <v>-1.7649999999999999E-2</v>
+      </c>
+      <c r="ES1">
+        <v>-1.7600000000000001E-2</v>
+      </c>
+      <c r="ET1">
+        <v>-1.7550000000000003E-2</v>
+      </c>
+      <c r="EU1">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="BO1">
+      <c r="EV1">
+        <v>-1.745E-2</v>
+      </c>
+      <c r="EW1">
+        <v>-1.7399999999999999E-2</v>
+      </c>
+      <c r="EX1">
+        <v>-1.7350000000000001E-2</v>
+      </c>
+      <c r="EY1">
+        <v>-1.7300000000000003E-2</v>
+      </c>
+      <c r="EZ1">
+        <v>-1.7250000000000001E-2</v>
+      </c>
+      <c r="FA1">
+        <v>-1.72E-2</v>
+      </c>
+      <c r="FB1">
+        <v>-1.7149999999999999E-2</v>
+      </c>
+      <c r="FC1">
+        <v>-1.7100000000000001E-2</v>
+      </c>
+      <c r="FD1">
+        <v>-1.7050000000000003E-2</v>
+      </c>
+      <c r="FE1">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="BP1">
+      <c r="FF1">
+        <v>-1.695E-2</v>
+      </c>
+      <c r="FG1">
+        <v>-1.6900000000000002E-2</v>
+      </c>
+      <c r="FH1">
+        <v>-1.685E-2</v>
+      </c>
+      <c r="FI1">
+        <v>-1.6800000000000002E-2</v>
+      </c>
+      <c r="FJ1">
+        <v>-1.6750000000000001E-2</v>
+      </c>
+      <c r="FK1">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="FL1">
+        <v>-1.6650000000000002E-2</v>
+      </c>
+      <c r="FM1">
+        <v>-1.66E-2</v>
+      </c>
+      <c r="FN1">
+        <v>-1.6550000000000002E-2</v>
+      </c>
+      <c r="FO1">
         <v>-1.6500000000000001E-2</v>
       </c>
-      <c r="BQ1">
+      <c r="FP1">
+        <v>-1.6449999999999999E-2</v>
+      </c>
+      <c r="FQ1">
+        <v>-1.6400000000000001E-2</v>
+      </c>
+      <c r="FR1">
+        <v>-1.6350000000000003E-2</v>
+      </c>
+      <c r="FS1">
+        <v>-1.6300000000000002E-2</v>
+      </c>
+      <c r="FT1">
+        <v>-1.6250000000000001E-2</v>
+      </c>
+      <c r="FU1">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="FV1">
+        <v>-1.6150000000000001E-2</v>
+      </c>
+      <c r="FW1">
+        <v>-1.6100000000000003E-2</v>
+      </c>
+      <c r="FX1">
+        <v>-1.6050000000000002E-2</v>
+      </c>
+      <c r="FY1">
         <v>-1.6E-2</v>
       </c>
-      <c r="BR1">
-        <v>-1.55E-2</v>
-      </c>
-      <c r="BS1">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="BT1">
-        <v>-1.4499999999999999E-2</v>
-      </c>
-      <c r="BU1">
-        <v>-1.3999999999999999E-2</v>
-      </c>
-      <c r="BV1">
-        <v>-1.3499999999999998E-2</v>
-      </c>
-      <c r="BW1">
-        <v>-1.2999999999999998E-2</v>
-      </c>
-      <c r="BX1">
-        <v>-1.2500000000000004E-2</v>
-      </c>
-      <c r="BY1">
-        <v>-1.1999999999999997E-2</v>
-      </c>
-      <c r="BZ1">
-        <v>-1.1500000000000003E-2</v>
-      </c>
-      <c r="CA1">
-        <v>-1.0999999999999996E-2</v>
-      </c>
-      <c r="CB1">
-        <v>-1.0500000000000002E-2</v>
-      </c>
-      <c r="CC1">
+      <c r="FZ1">
+        <v>-1.5949999999999999E-2</v>
+      </c>
+      <c r="GA1">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="GB1">
+        <v>-1.5850000000000003E-2</v>
+      </c>
+      <c r="GC1">
+        <v>-1.5800000000000002E-2</v>
+      </c>
+      <c r="GD1">
+        <v>-1.575E-2</v>
+      </c>
+      <c r="GE1">
+        <v>-1.5699999999999999E-2</v>
+      </c>
+      <c r="GF1">
+        <v>-1.5650000000000004E-2</v>
+      </c>
+      <c r="GG1">
+        <v>-1.5600000000000001E-2</v>
+      </c>
+      <c r="GH1">
+        <v>-1.555E-2</v>
+      </c>
+      <c r="GI1">
+        <v>-1.5500000000000002E-2</v>
+      </c>
+      <c r="GJ1">
+        <v>-1.545E-2</v>
+      </c>
+      <c r="GK1">
+        <v>-1.54E-2</v>
+      </c>
+      <c r="GL1">
+        <v>-1.5350000000000001E-2</v>
+      </c>
+      <c r="GM1">
+        <v>-1.5300000000000001E-2</v>
+      </c>
+      <c r="GN1">
+        <v>-1.5250000000000001E-2</v>
+      </c>
+      <c r="GO1">
+        <v>-1.52E-2</v>
+      </c>
+      <c r="GP1">
+        <v>-1.515E-2</v>
+      </c>
+      <c r="GQ1">
+        <v>-1.5100000000000001E-2</v>
+      </c>
+      <c r="GR1">
+        <v>-1.5050000000000001E-2</v>
+      </c>
+      <c r="GS1">
+        <v>-1.5000000000000001E-2</v>
+      </c>
+      <c r="GT1">
+        <v>-1.4950000000000001E-2</v>
+      </c>
+      <c r="GU1">
+        <v>-1.49E-2</v>
+      </c>
+      <c r="GV1">
+        <v>-1.485E-2</v>
+      </c>
+      <c r="GW1">
+        <v>-1.4800000000000001E-2</v>
+      </c>
+      <c r="GX1">
+        <v>-1.4750000000000001E-2</v>
+      </c>
+      <c r="GY1">
+        <v>-1.4700000000000001E-2</v>
+      </c>
+      <c r="GZ1">
+        <v>-1.465E-2</v>
+      </c>
+      <c r="HA1">
+        <v>-1.4600000000000002E-2</v>
+      </c>
+      <c r="HB1">
+        <v>-1.455E-2</v>
+      </c>
+      <c r="HC1">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+      <c r="HD1">
+        <v>-1.4450000000000001E-2</v>
+      </c>
+      <c r="HE1">
+        <v>-1.44E-2</v>
+      </c>
+      <c r="HF1">
+        <v>-1.4350000000000002E-2</v>
+      </c>
+      <c r="HG1">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="HH1">
+        <v>-1.4250000000000002E-2</v>
+      </c>
+      <c r="HI1">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="HJ1">
+        <v>-1.4149999999999999E-2</v>
+      </c>
+      <c r="HK1">
+        <v>-1.4100000000000001E-2</v>
+      </c>
+      <c r="HL1">
+        <v>-1.405E-2</v>
+      </c>
+      <c r="HM1">
+        <v>-1.4000000000000002E-2</v>
+      </c>
+      <c r="HN1">
+        <v>-1.3950000000000001E-2</v>
+      </c>
+      <c r="HO1">
+        <v>-1.3899999999999999E-2</v>
+      </c>
+      <c r="HP1">
+        <v>-1.3850000000000001E-2</v>
+      </c>
+      <c r="HQ1">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="HR1">
+        <v>-1.3750000000000002E-2</v>
+      </c>
+      <c r="HS1">
+        <v>-1.37E-2</v>
+      </c>
+      <c r="HT1">
+        <v>-1.3650000000000001E-2</v>
+      </c>
+      <c r="HU1">
+        <v>-1.3600000000000001E-2</v>
+      </c>
+      <c r="HV1">
+        <v>-1.355E-2</v>
+      </c>
+      <c r="HW1">
+        <v>-1.3500000000000002E-2</v>
+      </c>
+      <c r="HX1">
+        <v>-1.345E-2</v>
+      </c>
+      <c r="HY1">
+        <v>-1.34E-2</v>
+      </c>
+      <c r="HZ1">
+        <v>-1.3350000000000001E-2</v>
+      </c>
+      <c r="IA1">
+        <v>-1.3300000000000001E-2</v>
+      </c>
+      <c r="IB1">
+        <v>-1.3250000000000001E-2</v>
+      </c>
+      <c r="IC1">
+        <v>-1.32E-2</v>
+      </c>
+      <c r="ID1">
+        <v>-1.315E-2</v>
+      </c>
+      <c r="IE1">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="IF1">
+        <v>-1.3050000000000001E-2</v>
+      </c>
+      <c r="IG1">
+        <v>-1.3000000000000001E-2</v>
+      </c>
+      <c r="IH1">
+        <v>-1.2950000000000001E-2</v>
+      </c>
+      <c r="II1">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="IJ1">
+        <v>-1.285E-2</v>
+      </c>
+      <c r="IK1">
+        <v>-1.2800000000000001E-2</v>
+      </c>
+      <c r="IL1">
+        <v>-1.2750000000000001E-2</v>
+      </c>
+      <c r="IM1">
+        <v>-1.2700000000000001E-2</v>
+      </c>
+      <c r="IN1">
+        <v>-1.265E-2</v>
+      </c>
+      <c r="IO1">
+        <v>-1.2600000000000002E-2</v>
+      </c>
+      <c r="IP1">
+        <v>-1.255E-2</v>
+      </c>
+      <c r="IQ1">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="IR1">
+        <v>-1.2450000000000001E-2</v>
+      </c>
+      <c r="IS1">
+        <v>-1.24E-2</v>
+      </c>
+      <c r="IT1">
+        <v>-1.2350000000000002E-2</v>
+      </c>
+      <c r="IU1">
+        <v>-1.23E-2</v>
+      </c>
+      <c r="IV1">
+        <v>-1.2250000000000002E-2</v>
+      </c>
+      <c r="IW1">
+        <v>-1.2200000000000001E-2</v>
+      </c>
+      <c r="IX1">
+        <v>-1.2149999999999999E-2</v>
+      </c>
+      <c r="IY1">
+        <v>-1.2100000000000001E-2</v>
+      </c>
+      <c r="IZ1">
+        <v>-1.205E-2</v>
+      </c>
+      <c r="JA1">
+        <v>-1.2000000000000002E-2</v>
+      </c>
+      <c r="JB1">
+        <v>-1.1950000000000001E-2</v>
+      </c>
+      <c r="JC1">
+        <v>-1.1899999999999999E-2</v>
+      </c>
+      <c r="JD1">
+        <v>-1.1850000000000001E-2</v>
+      </c>
+      <c r="JE1">
+        <v>-1.18E-2</v>
+      </c>
+      <c r="JF1">
+        <v>-1.1750000000000002E-2</v>
+      </c>
+      <c r="JG1">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="JH1">
+        <v>-1.1650000000000001E-2</v>
+      </c>
+      <c r="JI1">
+        <v>-1.1600000000000001E-2</v>
+      </c>
+      <c r="JJ1">
+        <v>-1.155E-2</v>
+      </c>
+      <c r="JK1">
+        <v>-1.1500000000000002E-2</v>
+      </c>
+      <c r="JL1">
+        <v>-1.145E-2</v>
+      </c>
+      <c r="JM1">
+        <v>-1.14E-2</v>
+      </c>
+      <c r="JN1">
+        <v>-1.1350000000000001E-2</v>
+      </c>
+      <c r="JO1">
+        <v>-1.1300000000000001E-2</v>
+      </c>
+      <c r="JP1">
+        <v>-1.1250000000000001E-2</v>
+      </c>
+      <c r="JQ1">
+        <v>-1.12E-2</v>
+      </c>
+      <c r="JR1">
+        <v>-1.115E-2</v>
+      </c>
+      <c r="JS1">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="JT1">
+        <v>-1.1050000000000001E-2</v>
+      </c>
+      <c r="JU1">
+        <v>-1.1000000000000001E-2</v>
+      </c>
+      <c r="JV1">
+        <v>-1.0950000000000001E-2</v>
+      </c>
+      <c r="JW1">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="JX1">
+        <v>-1.085E-2</v>
+      </c>
+      <c r="JY1">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="JZ1">
+        <v>-1.0750000000000001E-2</v>
+      </c>
+      <c r="KA1">
+        <v>-1.0700000000000001E-2</v>
+      </c>
+      <c r="KB1">
+        <v>-1.065E-2</v>
+      </c>
+      <c r="KC1">
+        <v>-1.0600000000000002E-2</v>
+      </c>
+      <c r="KD1">
+        <v>-1.055E-2</v>
+      </c>
+      <c r="KE1">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+      <c r="KF1">
+        <v>-1.0450000000000001E-2</v>
+      </c>
+      <c r="KG1">
+        <v>-1.04E-2</v>
+      </c>
+      <c r="KH1">
+        <v>-1.0350000000000002E-2</v>
+      </c>
+      <c r="KI1">
+        <v>-1.03E-2</v>
+      </c>
+      <c r="KJ1">
+        <v>-1.0250000000000002E-2</v>
+      </c>
+      <c r="KK1">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="KL1">
+        <v>-1.0149999999999999E-2</v>
+      </c>
+      <c r="KM1">
+        <v>-1.0100000000000001E-2</v>
+      </c>
+      <c r="KN1">
+        <v>-1.005E-2</v>
+      </c>
+      <c r="KO1">
         <v>-1.0000000000000002E-2</v>
       </c>
-      <c r="CD1">
+      <c r="KP1">
+        <v>-9.9500000000000005E-3</v>
+      </c>
+      <c r="KQ1">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="KR1">
+        <v>-9.8500000000000011E-3</v>
+      </c>
+      <c r="KS1">
+        <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="KT1">
+        <v>-9.7500000000000017E-3</v>
+      </c>
+      <c r="KU1">
+        <v>-9.7000000000000003E-3</v>
+      </c>
+      <c r="KV1">
+        <v>-9.6500000000000006E-3</v>
+      </c>
+      <c r="KW1">
+        <v>-9.6000000000000009E-3</v>
+      </c>
+      <c r="KX1">
+        <v>-9.5499999999999995E-3</v>
+      </c>
+      <c r="KY1">
         <v>-9.5000000000000015E-3</v>
       </c>
-      <c r="CE1">
-        <v>-8.9999999999999941E-3</v>
-      </c>
-      <c r="CF1">
+      <c r="KZ1">
+        <v>-9.4500000000000001E-3</v>
+      </c>
+      <c r="LA1">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="LB1">
+        <v>-9.3500000000000007E-3</v>
+      </c>
+      <c r="LC1">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="LD1">
+        <v>-9.2500000000000013E-3</v>
+      </c>
+      <c r="LE1">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+      <c r="LF1">
+        <v>-9.1499999999999984E-3</v>
+      </c>
+      <c r="LG1">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+      <c r="LH1">
+        <v>-9.049999999999999E-3</v>
+      </c>
+      <c r="LI1">
+        <v>-9.0000000000000011E-3</v>
+      </c>
+      <c r="LJ1">
+        <v>-8.9499999999999996E-3</v>
+      </c>
+      <c r="LK1">
+        <v>-8.9000000000000017E-3</v>
+      </c>
+      <c r="LL1">
+        <v>-8.8500000000000002E-3</v>
+      </c>
+      <c r="LM1">
+        <v>-8.8000000000000023E-3</v>
+      </c>
+      <c r="LN1">
+        <v>-8.7500000000000008E-3</v>
+      </c>
+      <c r="LO1">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+      <c r="LP1">
+        <v>-8.6500000000000014E-3</v>
+      </c>
+      <c r="LQ1">
+        <v>-8.6E-3</v>
+      </c>
+      <c r="LR1">
+        <v>-8.550000000000002E-3</v>
+      </c>
+      <c r="LS1">
         <v>-8.5000000000000006E-3</v>
       </c>
-      <c r="CG1">
+      <c r="LT1">
+        <v>-8.4499999999999992E-3</v>
+      </c>
+      <c r="LU1">
+        <v>-8.4000000000000012E-3</v>
+      </c>
+      <c r="LV1">
+        <v>-8.3499999999999998E-3</v>
+      </c>
+      <c r="LW1">
+        <v>-8.3000000000000018E-3</v>
+      </c>
+      <c r="LX1">
+        <v>-8.2500000000000004E-3</v>
+      </c>
+      <c r="LY1">
+        <v>-8.199999999999999E-3</v>
+      </c>
+      <c r="LZ1">
+        <v>-8.150000000000001E-3</v>
+      </c>
+      <c r="MA1">
+        <v>-8.0999999999999996E-3</v>
+      </c>
+      <c r="MB1">
+        <v>-8.0500000000000016E-3</v>
+      </c>
+      <c r="MC1">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="CH1">
+      <c r="MD1">
+        <v>-7.9500000000000022E-3</v>
+      </c>
+      <c r="ME1">
+        <v>-7.9000000000000008E-3</v>
+      </c>
+      <c r="MF1">
+        <v>-7.8499999999999993E-3</v>
+      </c>
+      <c r="MG1">
+        <v>-7.8000000000000014E-3</v>
+      </c>
+      <c r="MH1">
+        <v>-7.7499999999999999E-3</v>
+      </c>
+      <c r="MI1">
+        <v>-7.700000000000002E-3</v>
+      </c>
+      <c r="MJ1">
+        <v>-7.6500000000000005E-3</v>
+      </c>
+      <c r="MK1">
+        <v>-7.5999999999999991E-3</v>
+      </c>
+      <c r="ML1">
+        <v>-7.5500000000000012E-3</v>
+      </c>
+      <c r="MM1">
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="CI1">
-        <v>-7.0000000000000062E-3</v>
-      </c>
-      <c r="CJ1">
-        <v>-6.4999999999999988E-3</v>
-      </c>
-      <c r="CK1">
-        <v>-5.9999999999999984E-3</v>
-      </c>
-      <c r="CL1">
-        <v>-5.4999999999999979E-3</v>
-      </c>
-      <c r="CM1">
-        <v>-5.0000000000000044E-3</v>
-      </c>
-      <c r="CN1">
-        <v>-4.500000000000004E-3</v>
-      </c>
-      <c r="CO1">
-        <v>-3.9999999999999966E-3</v>
-      </c>
-      <c r="CP1">
-        <v>-3.4999999999999962E-3</v>
-      </c>
-      <c r="CQ1">
+      <c r="MN1">
+        <v>-7.4500000000000018E-3</v>
+      </c>
+      <c r="MO1">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="MP1">
+        <v>-7.3499999999999989E-3</v>
+      </c>
+      <c r="MQ1">
+        <v>-7.3000000000000009E-3</v>
+      </c>
+      <c r="MR1">
+        <v>-7.250000000000003E-3</v>
+      </c>
+      <c r="MS1">
+        <v>-7.2000000000000015E-3</v>
+      </c>
+      <c r="MT1">
+        <v>-7.1500000000000001E-3</v>
+      </c>
+      <c r="MU1">
+        <v>-7.0999999999999987E-3</v>
+      </c>
+      <c r="MV1">
+        <v>-7.0500000000000007E-3</v>
+      </c>
+      <c r="MW1">
+        <v>-7.0000000000000027E-3</v>
+      </c>
+      <c r="MX1">
+        <v>-6.9500000000000013E-3</v>
+      </c>
+      <c r="MY1">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+      <c r="MZ1">
+        <v>-6.8499999999999985E-3</v>
+      </c>
+      <c r="NA1">
+        <v>-6.8000000000000005E-3</v>
+      </c>
+      <c r="NB1">
+        <v>-6.7500000000000025E-3</v>
+      </c>
+      <c r="NC1">
+        <v>-6.7000000000000011E-3</v>
+      </c>
+      <c r="ND1">
+        <v>-6.6499999999999997E-3</v>
+      </c>
+      <c r="NE1">
+        <v>-6.5999999999999982E-3</v>
+      </c>
+      <c r="NF1">
+        <v>-6.5500000000000037E-3</v>
+      </c>
+      <c r="NG1">
+        <v>-6.5000000000000023E-3</v>
+      </c>
+      <c r="NH1">
+        <v>-6.4500000000000009E-3</v>
+      </c>
+      <c r="NI1">
+        <v>-6.3999999999999994E-3</v>
+      </c>
+      <c r="NJ1">
+        <v>-6.349999999999998E-3</v>
+      </c>
+      <c r="NK1">
+        <v>-6.3000000000000035E-3</v>
+      </c>
+      <c r="NL1">
+        <v>-6.2500000000000021E-3</v>
+      </c>
+      <c r="NM1">
+        <v>-6.2000000000000006E-3</v>
+      </c>
+      <c r="NN1">
+        <v>-6.1499999999999992E-3</v>
+      </c>
+      <c r="NO1">
+        <v>-6.0999999999999978E-3</v>
+      </c>
+      <c r="NP1">
+        <v>-6.0500000000000033E-3</v>
+      </c>
+      <c r="NQ1">
+        <v>-6.0000000000000019E-3</v>
+      </c>
+      <c r="NR1">
+        <v>-5.9500000000000004E-3</v>
+      </c>
+      <c r="NS1">
+        <v>-5.899999999999999E-3</v>
+      </c>
+      <c r="NT1">
+        <v>-5.8499999999999976E-3</v>
+      </c>
+      <c r="NU1">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="NV1">
+        <v>-5.7500000000000016E-3</v>
+      </c>
+      <c r="NW1">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="NX1">
+        <v>-5.6499999999999988E-3</v>
+      </c>
+      <c r="NY1">
+        <v>-5.6000000000000008E-3</v>
+      </c>
+      <c r="NZ1">
+        <v>-5.5499999999999994E-3</v>
+      </c>
+      <c r="OA1">
+        <v>-5.5000000000000014E-3</v>
+      </c>
+      <c r="OB1">
+        <v>-5.45E-3</v>
+      </c>
+      <c r="OC1">
+        <v>-5.3999999999999986E-3</v>
+      </c>
+      <c r="OD1">
+        <v>-5.3500000000000006E-3</v>
+      </c>
+      <c r="OE1">
+        <v>-5.2999999999999992E-3</v>
+      </c>
+      <c r="OF1">
+        <v>-5.2500000000000012E-3</v>
+      </c>
+      <c r="OG1">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="OH1">
+        <v>-5.1499999999999983E-3</v>
+      </c>
+      <c r="OI1">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="OJ1">
+        <v>-5.0499999999999989E-3</v>
+      </c>
+      <c r="OK1">
+        <v>-5.000000000000001E-3</v>
+      </c>
+      <c r="OL1">
+        <v>-4.9499999999999995E-3</v>
+      </c>
+      <c r="OM1">
+        <v>-4.9000000000000016E-3</v>
+      </c>
+      <c r="ON1">
+        <v>-4.8500000000000001E-3</v>
+      </c>
+      <c r="OO1">
+        <v>-4.7999999999999987E-3</v>
+      </c>
+      <c r="OP1">
+        <v>-4.7500000000000007E-3</v>
+      </c>
+      <c r="OQ1">
+        <v>-4.6999999999999993E-3</v>
+      </c>
+      <c r="OR1">
+        <v>-4.6500000000000014E-3</v>
+      </c>
+      <c r="OS1">
+        <v>-4.5999999999999999E-3</v>
+      </c>
+      <c r="OT1">
+        <v>-4.5499999999999985E-3</v>
+      </c>
+      <c r="OU1">
+        <v>-4.5000000000000005E-3</v>
+      </c>
+      <c r="OV1">
+        <v>-4.4499999999999991E-3</v>
+      </c>
+      <c r="OW1">
+        <v>-4.4000000000000011E-3</v>
+      </c>
+      <c r="OX1">
+        <v>-4.3499999999999997E-3</v>
+      </c>
+      <c r="OY1">
+        <v>-4.2999999999999983E-3</v>
+      </c>
+      <c r="OZ1">
+        <v>-4.2500000000000003E-3</v>
+      </c>
+      <c r="PA1">
+        <v>-4.2000000000000023E-3</v>
+      </c>
+      <c r="PB1">
+        <v>-4.1500000000000009E-3</v>
+      </c>
+      <c r="PC1">
+        <v>-4.0999999999999995E-3</v>
+      </c>
+      <c r="PD1">
+        <v>-4.049999999999998E-3</v>
+      </c>
+      <c r="PE1">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="PF1">
+        <v>-3.9500000000000021E-3</v>
+      </c>
+      <c r="PG1">
+        <v>-3.9000000000000007E-3</v>
+      </c>
+      <c r="PH1">
+        <v>-3.8499999999999993E-3</v>
+      </c>
+      <c r="PI1">
+        <v>-3.7999999999999978E-3</v>
+      </c>
+      <c r="PJ1">
+        <v>-3.7499999999999999E-3</v>
+      </c>
+      <c r="PK1">
+        <v>-3.7000000000000019E-3</v>
+      </c>
+      <c r="PL1">
+        <v>-3.6500000000000005E-3</v>
+      </c>
+      <c r="PM1">
+        <v>-3.599999999999999E-3</v>
+      </c>
+      <c r="PN1">
+        <v>-3.5499999999999976E-3</v>
+      </c>
+      <c r="PO1">
+        <v>-3.5000000000000031E-3</v>
+      </c>
+      <c r="PP1">
+        <v>-3.4500000000000017E-3</v>
+      </c>
+      <c r="PQ1">
+        <v>-3.4000000000000002E-3</v>
+      </c>
+      <c r="PR1">
+        <v>-3.3499999999999988E-3</v>
+      </c>
+      <c r="PS1">
+        <v>-3.2999999999999974E-3</v>
+      </c>
+      <c r="PT1">
+        <v>-3.2500000000000029E-3</v>
+      </c>
+      <c r="PU1">
+        <v>-3.2000000000000015E-3</v>
+      </c>
+      <c r="PV1">
+        <v>-3.15E-3</v>
+      </c>
+      <c r="PW1">
+        <v>-3.0999999999999986E-3</v>
+      </c>
+      <c r="PX1">
+        <v>-3.0499999999999972E-3</v>
+      </c>
+      <c r="PY1">
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="CR1">
+      <c r="PZ1">
+        <v>-2.9500000000000012E-3</v>
+      </c>
+      <c r="QA1">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="QB1">
+        <v>-2.8499999999999984E-3</v>
+      </c>
+      <c r="QC1">
+        <v>-2.7999999999999969E-3</v>
+      </c>
+      <c r="QD1">
+        <v>-2.7500000000000024E-3</v>
+      </c>
+      <c r="QE1">
+        <v>-2.700000000000001E-3</v>
+      </c>
+      <c r="QF1">
+        <v>-2.6499999999999996E-3</v>
+      </c>
+      <c r="QG1">
+        <v>-2.5999999999999981E-3</v>
+      </c>
+      <c r="QH1">
+        <v>-2.5500000000000002E-3</v>
+      </c>
+      <c r="QI1">
         <v>-2.5000000000000022E-3</v>
       </c>
-      <c r="CS1">
-        <v>-1.9999999999999948E-3</v>
-      </c>
-      <c r="CT1">
-        <v>-1.4999999999999944E-3</v>
-      </c>
-      <c r="CU1">
+      <c r="QJ1">
+        <v>-2.4500000000000008E-3</v>
+      </c>
+      <c r="QK1">
+        <v>-2.3999999999999994E-3</v>
+      </c>
+      <c r="QL1">
+        <v>-2.3499999999999979E-3</v>
+      </c>
+      <c r="QM1">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="QN1">
+        <v>-2.250000000000002E-3</v>
+      </c>
+      <c r="QO1">
+        <v>-2.2000000000000006E-3</v>
+      </c>
+      <c r="QP1">
+        <v>-2.1499999999999991E-3</v>
+      </c>
+      <c r="QQ1">
+        <v>-2.0999999999999977E-3</v>
+      </c>
+      <c r="QR1">
+        <v>-2.0499999999999997E-3</v>
+      </c>
+      <c r="QS1">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="QT1">
+        <v>-1.9500000000000003E-3</v>
+      </c>
+      <c r="QU1">
+        <v>-1.8999999999999989E-3</v>
+      </c>
+      <c r="QV1">
+        <v>-1.8500000000000009E-3</v>
+      </c>
+      <c r="QW1">
+        <v>-1.7999999999999995E-3</v>
+      </c>
+      <c r="QX1">
+        <v>-1.7500000000000016E-3</v>
+      </c>
+      <c r="QY1">
+        <v>-1.7000000000000001E-3</v>
+      </c>
+      <c r="QZ1">
+        <v>-1.6499999999999987E-3</v>
+      </c>
+      <c r="RA1">
+        <v>-1.6000000000000007E-3</v>
+      </c>
+      <c r="RB1">
+        <v>-1.5499999999999993E-3</v>
+      </c>
+      <c r="RC1">
+        <v>-1.5000000000000013E-3</v>
+      </c>
+      <c r="RD1">
+        <v>-1.4499999999999999E-3</v>
+      </c>
+      <c r="RE1">
+        <v>-1.3999999999999985E-3</v>
+      </c>
+      <c r="RF1">
+        <v>-1.3500000000000005E-3</v>
+      </c>
+      <c r="RG1">
+        <v>-1.2999999999999991E-3</v>
+      </c>
+      <c r="RH1">
+        <v>-1.2500000000000011E-3</v>
+      </c>
+      <c r="RI1">
+        <v>-1.1999999999999997E-3</v>
+      </c>
+      <c r="RJ1">
+        <v>-1.1499999999999982E-3</v>
+      </c>
+      <c r="RK1">
+        <v>-1.1000000000000003E-3</v>
+      </c>
+      <c r="RL1">
+        <v>-1.0499999999999989E-3</v>
+      </c>
+      <c r="RM1">
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="CV1">
+      <c r="RN1">
+        <v>-9.4999999999999946E-4</v>
+      </c>
+      <c r="RO1">
+        <v>-9.0000000000000149E-4</v>
+      </c>
+      <c r="RP1">
+        <v>-8.5000000000000006E-4</v>
+      </c>
+      <c r="RQ1">
+        <v>-7.9999999999999863E-4</v>
+      </c>
+      <c r="RR1">
+        <v>-7.5000000000000067E-4</v>
+      </c>
+      <c r="RS1">
+        <v>-6.9999999999999923E-4</v>
+      </c>
+      <c r="RT1">
+        <v>-6.5000000000000127E-4</v>
+      </c>
+      <c r="RU1">
+        <v>-5.9999999999999984E-4</v>
+      </c>
+      <c r="RV1">
+        <v>-5.4999999999999841E-4</v>
+      </c>
+      <c r="RW1">
         <v>-5.0000000000000044E-4</v>
       </c>
-      <c r="CW1">
+      <c r="RX1">
+        <v>-4.4999999999999901E-4</v>
+      </c>
+      <c r="RY1">
+        <v>-4.0000000000000105E-4</v>
+      </c>
+      <c r="RZ1">
+        <v>-3.4999999999999962E-4</v>
+      </c>
+      <c r="SA1">
+        <v>-2.9999999999999818E-4</v>
+      </c>
+      <c r="SB1">
+        <v>-2.5000000000000022E-4</v>
+      </c>
+      <c r="SC1">
+        <v>-2.0000000000000226E-4</v>
+      </c>
+      <c r="SD1">
+        <v>-1.5000000000000083E-4</v>
+      </c>
+      <c r="SE1">
+        <v>-9.9999999999999395E-5</v>
+      </c>
+      <c r="SF1">
+        <v>-4.9999999999997963E-5</v>
+      </c>
+      <c r="SG1">
         <v>0</v>
       </c>
-      <c r="CX1">
-        <v>5.0000000000000738E-4</v>
-      </c>
-      <c r="CY1">
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="CZ1">
-        <v>1.5000000000000013E-3</v>
-      </c>
-      <c r="DA1">
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="DB1">
-        <v>2.4999999999999953E-3</v>
-      </c>
-      <c r="DC1">
-        <v>3.0000000000000027E-3</v>
-      </c>
-      <c r="DD1">
-        <v>3.5000000000000031E-3</v>
-      </c>
-      <c r="DE1">
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="DF1">
+      <c r="SH1">
+        <v>4.9999999999997963E-5</v>
+      </c>
+      <c r="SI1">
+        <v>9.9999999999999395E-5</v>
+      </c>
+      <c r="SJ1">
+        <v>1.5000000000000083E-4</v>
+      </c>
+      <c r="SK1">
+        <v>2.0000000000000226E-4</v>
+      </c>
+      <c r="SL1">
+        <v>2.5000000000000022E-4</v>
+      </c>
+      <c r="SM1">
+        <v>2.9999999999999818E-4</v>
+      </c>
+      <c r="SN1">
+        <v>3.4999999999999962E-4</v>
+      </c>
+      <c r="SO1">
+        <v>4.0000000000000105E-4</v>
+      </c>
+      <c r="SP1">
+        <v>4.5000000000000248E-4</v>
+      </c>
+      <c r="SQ1">
+        <v>4.9999999999999697E-4</v>
+      </c>
+      <c r="SR1">
+        <v>5.4999999999999841E-4</v>
+      </c>
+      <c r="SS1">
+        <v>5.9999999999999984E-4</v>
+      </c>
+      <c r="ST1">
+        <v>6.5000000000000127E-4</v>
+      </c>
+      <c r="SU1">
+        <v>7.000000000000027E-4</v>
+      </c>
+      <c r="SV1">
+        <v>7.499999999999972E-4</v>
+      </c>
+      <c r="SW1">
+        <v>7.9999999999999863E-4</v>
+      </c>
+      <c r="SX1">
+        <v>8.5000000000000006E-4</v>
+      </c>
+      <c r="SY1">
+        <v>9.0000000000000149E-4</v>
+      </c>
+      <c r="SZ1">
+        <v>9.5000000000000293E-4</v>
+      </c>
+      <c r="TA1">
+        <v>9.9999999999999742E-4</v>
+      </c>
+      <c r="TB1">
+        <v>1.0499999999999989E-3</v>
+      </c>
+      <c r="TC1">
+        <v>1.1000000000000003E-3</v>
+      </c>
+      <c r="TD1">
+        <v>1.1500000000000017E-3</v>
+      </c>
+      <c r="TE1">
+        <v>1.2000000000000031E-3</v>
+      </c>
+      <c r="TF1">
+        <v>1.2499999999999976E-3</v>
+      </c>
+      <c r="TG1">
+        <v>1.2999999999999991E-3</v>
+      </c>
+      <c r="TH1">
+        <v>1.3500000000000005E-3</v>
+      </c>
+      <c r="TI1">
+        <v>1.4000000000000019E-3</v>
+      </c>
+      <c r="TJ1">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="TK1">
+        <v>1.4999999999999979E-3</v>
+      </c>
+      <c r="TL1">
+        <v>1.5499999999999993E-3</v>
+      </c>
+      <c r="TM1">
+        <v>1.6000000000000007E-3</v>
+      </c>
+      <c r="TN1">
+        <v>1.6500000000000022E-3</v>
+      </c>
+      <c r="TO1">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="TP1">
+        <v>1.7499999999999981E-3</v>
+      </c>
+      <c r="TQ1">
+        <v>1.7999999999999995E-3</v>
+      </c>
+      <c r="TR1">
+        <v>1.8500000000000009E-3</v>
+      </c>
+      <c r="TS1">
+        <v>1.9000000000000024E-3</v>
+      </c>
+      <c r="TT1">
+        <v>1.9500000000000003E-3</v>
+      </c>
+      <c r="TU1">
+        <v>1.9999999999999983E-3</v>
+      </c>
+      <c r="TV1">
+        <v>2.0499999999999997E-3</v>
+      </c>
+      <c r="TW1">
+        <v>2.1000000000000012E-3</v>
+      </c>
+      <c r="TX1">
+        <v>2.1499999999999991E-3</v>
+      </c>
+      <c r="TY1">
+        <v>2.2000000000000006E-3</v>
+      </c>
+      <c r="TZ1">
+        <v>2.2499999999999985E-3</v>
+      </c>
+      <c r="UA1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="UB1">
+        <v>2.3500000000000014E-3</v>
+      </c>
+      <c r="UC1">
+        <v>2.3999999999999994E-3</v>
+      </c>
+      <c r="UD1">
+        <v>2.4500000000000008E-3</v>
+      </c>
+      <c r="UE1">
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="UF1">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="UG1">
+        <v>2.6000000000000016E-3</v>
+      </c>
+      <c r="UH1">
+        <v>2.6499999999999996E-3</v>
+      </c>
+      <c r="UI1">
+        <v>2.700000000000001E-3</v>
+      </c>
+      <c r="UJ1">
+        <v>2.749999999999999E-3</v>
+      </c>
+      <c r="UK1">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="UL1">
+        <v>2.8499999999999984E-3</v>
+      </c>
+      <c r="UM1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="UN1">
+        <v>2.9500000000000012E-3</v>
+      </c>
+      <c r="UO1">
+        <v>2.9999999999999992E-3</v>
+      </c>
+      <c r="UP1">
+        <v>3.0500000000000006E-3</v>
+      </c>
+      <c r="UQ1">
+        <v>3.0999999999999986E-3</v>
+      </c>
+      <c r="UR1">
+        <v>3.15E-3</v>
+      </c>
+      <c r="US1">
+        <v>3.2000000000000015E-3</v>
+      </c>
+      <c r="UT1">
+        <v>3.2499999999999994E-3</v>
+      </c>
+      <c r="UU1">
+        <v>3.3000000000000008E-3</v>
+      </c>
+      <c r="UV1">
+        <v>3.3499999999999988E-3</v>
+      </c>
+      <c r="UW1">
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="UX1">
+        <v>3.4500000000000017E-3</v>
+      </c>
+      <c r="UY1">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="UZ1">
+        <v>3.5499999999999976E-3</v>
+      </c>
+      <c r="VA1">
+        <v>3.599999999999999E-3</v>
+      </c>
+      <c r="VB1">
+        <v>3.6500000000000005E-3</v>
+      </c>
+      <c r="VC1">
+        <v>3.7000000000000019E-3</v>
+      </c>
+      <c r="VD1">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="VE1">
+        <v>3.7999999999999978E-3</v>
+      </c>
+      <c r="VF1">
+        <v>3.8499999999999993E-3</v>
+      </c>
+      <c r="VG1">
+        <v>3.9000000000000007E-3</v>
+      </c>
+      <c r="VH1">
+        <v>3.9500000000000021E-3</v>
+      </c>
+      <c r="VI1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="VJ1">
+        <v>4.049999999999998E-3</v>
+      </c>
+      <c r="VK1">
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="VL1">
+        <v>4.1500000000000009E-3</v>
+      </c>
+      <c r="VM1">
+        <v>4.2000000000000023E-3</v>
+      </c>
+      <c r="VN1">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="VO1">
+        <v>4.2999999999999983E-3</v>
+      </c>
+      <c r="VP1">
+        <v>4.3499999999999997E-3</v>
+      </c>
+      <c r="VQ1">
+        <v>4.4000000000000011E-3</v>
+      </c>
+      <c r="VR1">
+        <v>4.4500000000000026E-3</v>
+      </c>
+      <c r="VS1">
         <v>4.4999999999999971E-3</v>
       </c>
-      <c r="DG1">
+      <c r="VT1">
+        <v>4.5499999999999985E-3</v>
+      </c>
+      <c r="VU1">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="VV1">
+        <v>4.6500000000000014E-3</v>
+      </c>
+      <c r="VW1">
+        <v>4.7000000000000028E-3</v>
+      </c>
+      <c r="VX1">
+        <v>4.7499999999999973E-3</v>
+      </c>
+      <c r="VY1">
+        <v>4.7999999999999987E-3</v>
+      </c>
+      <c r="VZ1">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="WA1">
+        <v>4.9000000000000016E-3</v>
+      </c>
+      <c r="WB1">
+        <v>4.950000000000003E-3</v>
+      </c>
+      <c r="WC1">
         <v>4.9999999999999975E-3</v>
       </c>
-      <c r="DH1">
-        <v>5.5000000000000049E-3</v>
-      </c>
-      <c r="DI1">
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="DJ1">
+      <c r="WD1">
+        <v>5.0499999999999989E-3</v>
+      </c>
+      <c r="WE1">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="WF1">
+        <v>5.1500000000000018E-3</v>
+      </c>
+      <c r="WG1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="WH1">
+        <v>5.2499999999999977E-3</v>
+      </c>
+      <c r="WI1">
+        <v>5.2999999999999992E-3</v>
+      </c>
+      <c r="WJ1">
+        <v>5.3500000000000006E-3</v>
+      </c>
+      <c r="WK1">
+        <v>5.400000000000002E-3</v>
+      </c>
+      <c r="WL1">
+        <v>5.45E-3</v>
+      </c>
+      <c r="WM1">
+        <v>5.4999999999999979E-3</v>
+      </c>
+      <c r="WN1">
+        <v>5.5499999999999994E-3</v>
+      </c>
+      <c r="WO1">
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="WP1">
+        <v>5.6500000000000022E-3</v>
+      </c>
+      <c r="WQ1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="WR1">
+        <v>5.7499999999999982E-3</v>
+      </c>
+      <c r="WS1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="WT1">
+        <v>5.850000000000001E-3</v>
+      </c>
+      <c r="WU1">
+        <v>5.9000000000000025E-3</v>
+      </c>
+      <c r="WV1">
+        <v>5.9500000000000004E-3</v>
+      </c>
+      <c r="WW1">
+        <v>5.9999999999999984E-3</v>
+      </c>
+      <c r="WX1">
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="WY1">
+        <v>6.1000000000000013E-3</v>
+      </c>
+      <c r="WZ1">
+        <v>6.1499999999999992E-3</v>
+      </c>
+      <c r="XA1">
+        <v>6.2000000000000006E-3</v>
+      </c>
+      <c r="XB1">
+        <v>6.2499999999999986E-3</v>
+      </c>
+      <c r="XC1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="XD1">
+        <v>6.3500000000000015E-3</v>
+      </c>
+      <c r="XE1">
+        <v>6.4000000000000029E-3</v>
+      </c>
+      <c r="XF1">
+        <v>6.4500000000000043E-3</v>
+      </c>
+      <c r="XG1">
         <v>6.4999999999999988E-3</v>
       </c>
-      <c r="DK1">
+      <c r="XH1">
+        <v>6.5500000000000003E-3</v>
+      </c>
+      <c r="XI1">
+        <v>6.6000000000000017E-3</v>
+      </c>
+      <c r="XJ1">
+        <v>6.6500000000000031E-3</v>
+      </c>
+      <c r="XK1">
+        <v>6.7000000000000046E-3</v>
+      </c>
+      <c r="XL1">
+        <v>6.7499999999999991E-3</v>
+      </c>
+      <c r="XM1">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="XN1">
+        <v>6.8500000000000019E-3</v>
+      </c>
+      <c r="XO1">
+        <v>6.9000000000000034E-3</v>
+      </c>
+      <c r="XP1">
+        <v>6.9500000000000048E-3</v>
+      </c>
+      <c r="XQ1">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="DL1">
+      <c r="XR1">
+        <v>7.0500000000000007E-3</v>
+      </c>
+      <c r="XS1">
+        <v>7.1000000000000021E-3</v>
+      </c>
+      <c r="XT1">
+        <v>7.1499999999999966E-3</v>
+      </c>
+      <c r="XU1">
+        <v>7.1999999999999981E-3</v>
+      </c>
+      <c r="XV1">
+        <v>7.2499999999999995E-3</v>
+      </c>
+      <c r="XW1">
+        <v>7.3000000000000009E-3</v>
+      </c>
+      <c r="XX1">
+        <v>7.3500000000000024E-3</v>
+      </c>
+      <c r="XY1">
+        <v>7.3999999999999969E-3</v>
+      </c>
+      <c r="XZ1">
+        <v>7.4499999999999983E-3</v>
+      </c>
+      <c r="YA1">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="DM1">
-        <v>8.0000000000000071E-3</v>
-      </c>
-      <c r="DN1">
+      <c r="YB1">
+        <v>7.5500000000000012E-3</v>
+      </c>
+      <c r="YC1">
+        <v>7.6000000000000026E-3</v>
+      </c>
+      <c r="YD1">
+        <v>7.6499999999999971E-3</v>
+      </c>
+      <c r="YE1">
+        <v>7.6999999999999985E-3</v>
+      </c>
+      <c r="YF1">
+        <v>7.7499999999999999E-3</v>
+      </c>
+      <c r="YG1">
+        <v>7.8000000000000014E-3</v>
+      </c>
+      <c r="YH1">
+        <v>7.8500000000000028E-3</v>
+      </c>
+      <c r="YI1">
+        <v>7.8999999999999973E-3</v>
+      </c>
+      <c r="YJ1">
+        <v>7.9499999999999987E-3</v>
+      </c>
+      <c r="YK1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="YL1">
+        <v>8.0500000000000016E-3</v>
+      </c>
+      <c r="YM1">
+        <v>8.100000000000003E-3</v>
+      </c>
+      <c r="YN1">
+        <v>8.1499999999999975E-3</v>
+      </c>
+      <c r="YO1">
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="YP1">
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="YQ1">
+        <v>8.3000000000000018E-3</v>
+      </c>
+      <c r="YR1">
+        <v>8.3500000000000033E-3</v>
+      </c>
+      <c r="YS1">
+        <v>8.3999999999999977E-3</v>
+      </c>
+      <c r="YT1">
+        <v>8.4499999999999992E-3</v>
+      </c>
+      <c r="YU1">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="DO1">
+      <c r="YV1">
+        <v>8.550000000000002E-3</v>
+      </c>
+      <c r="YW1">
+        <v>8.6000000000000035E-3</v>
+      </c>
+      <c r="YX1">
+        <v>8.649999999999998E-3</v>
+      </c>
+      <c r="YY1">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="YZ1">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="ZA1">
+        <v>8.8000000000000023E-3</v>
+      </c>
+      <c r="ZB1">
+        <v>8.8499999999999968E-3</v>
+      </c>
+      <c r="ZC1">
+        <v>8.8999999999999982E-3</v>
+      </c>
+      <c r="ZD1">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="ZE1">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="DP1">
+      <c r="ZF1">
+        <v>9.0500000000000025E-3</v>
+      </c>
+      <c r="ZG1">
+        <v>9.099999999999997E-3</v>
+      </c>
+      <c r="ZH1">
+        <v>9.1499999999999984E-3</v>
+      </c>
+      <c r="ZI1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="ZJ1">
+        <v>9.2500000000000013E-3</v>
+      </c>
+      <c r="ZK1">
+        <v>9.3000000000000027E-3</v>
+      </c>
+      <c r="ZL1">
+        <v>9.3499999999999972E-3</v>
+      </c>
+      <c r="ZM1">
+        <v>9.3999999999999986E-3</v>
+      </c>
+      <c r="ZN1">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="ZO1">
         <v>9.5000000000000015E-3</v>
       </c>
-      <c r="DQ1">
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="DR1">
-        <v>1.0500000000000002E-2</v>
-      </c>
-      <c r="DS1">
-        <v>1.1000000000000003E-2</v>
-      </c>
-      <c r="DT1">
-        <v>1.1500000000000003E-2</v>
-      </c>
-      <c r="DU1">
+      <c r="ZP1">
+        <v>9.5500000000000029E-3</v>
+      </c>
+      <c r="ZQ1">
+        <v>9.5999999999999974E-3</v>
+      </c>
+      <c r="ZR1">
+        <v>9.6499999999999989E-3</v>
+      </c>
+      <c r="ZS1">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="ZT1">
+        <v>9.7500000000000017E-3</v>
+      </c>
+      <c r="ZU1">
+        <v>9.8000000000000032E-3</v>
+      </c>
+      <c r="ZV1">
+        <v>9.8499999999999976E-3</v>
+      </c>
+      <c r="ZW1">
+        <v>9.8999999999999991E-3</v>
+      </c>
+      <c r="ZX1">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="ZY1">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="ZZ1">
+        <v>1.0050000000000003E-2</v>
+      </c>
+      <c r="AAA1">
+        <v>1.0099999999999998E-2</v>
+      </c>
+      <c r="AAB1">
+        <v>1.0149999999999999E-2</v>
+      </c>
+      <c r="AAC1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="AAD1">
+        <v>1.0249999999999995E-2</v>
+      </c>
+      <c r="AAE1">
+        <v>1.0300000000000004E-2</v>
+      </c>
+      <c r="AAF1">
+        <v>1.0349999999999998E-2</v>
+      </c>
+      <c r="AAG1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="AAH1">
+        <v>1.0450000000000001E-2</v>
+      </c>
+      <c r="AAI1">
+        <v>1.0499999999999995E-2</v>
+      </c>
+      <c r="AAJ1">
+        <v>1.0550000000000004E-2</v>
+      </c>
+      <c r="AAK1">
+        <v>1.0599999999999998E-2</v>
+      </c>
+      <c r="AAL1">
+        <v>1.065E-2</v>
+      </c>
+      <c r="AAM1">
+        <v>1.0700000000000001E-2</v>
+      </c>
+      <c r="AAN1">
+        <v>1.0749999999999996E-2</v>
+      </c>
+      <c r="AAO1">
+        <v>1.0800000000000004E-2</v>
+      </c>
+      <c r="AAP1">
+        <v>1.0849999999999999E-2</v>
+      </c>
+      <c r="AAQ1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="AAR1">
+        <v>1.0950000000000001E-2</v>
+      </c>
+      <c r="AAS1">
+        <v>1.0999999999999996E-2</v>
+      </c>
+      <c r="AAT1">
+        <v>1.1050000000000004E-2</v>
+      </c>
+      <c r="AAU1">
+        <v>1.1099999999999999E-2</v>
+      </c>
+      <c r="AAV1">
+        <v>1.115E-2</v>
+      </c>
+      <c r="AAW1">
+        <v>1.1200000000000002E-2</v>
+      </c>
+      <c r="AAX1">
+        <v>1.1249999999999996E-2</v>
+      </c>
+      <c r="AAY1">
+        <v>1.1300000000000004E-2</v>
+      </c>
+      <c r="AAZ1">
+        <v>1.1349999999999999E-2</v>
+      </c>
+      <c r="ABA1">
+        <v>1.14E-2</v>
+      </c>
+      <c r="ABB1">
+        <v>1.1450000000000002E-2</v>
+      </c>
+      <c r="ABC1">
+        <v>1.1499999999999996E-2</v>
+      </c>
+      <c r="ABD1">
+        <v>1.1550000000000005E-2</v>
+      </c>
+      <c r="ABE1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="ABF1">
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="ABG1">
+        <v>1.1700000000000002E-2</v>
+      </c>
+      <c r="ABH1">
+        <v>1.1749999999999997E-2</v>
+      </c>
+      <c r="ABI1">
+        <v>1.1800000000000005E-2</v>
+      </c>
+      <c r="ABJ1">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="ABK1">
+        <v>1.1899999999999994E-2</v>
+      </c>
+      <c r="ABL1">
+        <v>1.1950000000000002E-2</v>
+      </c>
+      <c r="ABM1">
         <v>1.1999999999999997E-2</v>
       </c>
-      <c r="DV1">
+      <c r="ABN1">
+        <v>1.2050000000000005E-2</v>
+      </c>
+      <c r="ABO1">
+        <v>1.21E-2</v>
+      </c>
+      <c r="ABP1">
+        <v>1.2149999999999994E-2</v>
+      </c>
+      <c r="ABQ1">
+        <v>1.2200000000000003E-2</v>
+      </c>
+      <c r="ABR1">
+        <v>1.2249999999999997E-2</v>
+      </c>
+      <c r="ABS1">
+        <v>1.2300000000000005E-2</v>
+      </c>
+      <c r="ABT1">
+        <v>1.235E-2</v>
+      </c>
+      <c r="ABU1">
+        <v>1.2399999999999994E-2</v>
+      </c>
+      <c r="ABV1">
+        <v>1.2450000000000003E-2</v>
+      </c>
+      <c r="ABW1">
         <v>1.2499999999999997E-2</v>
       </c>
-      <c r="DW1">
+      <c r="ABX1">
+        <v>1.2550000000000006E-2</v>
+      </c>
+      <c r="ABY1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="ABZ1">
+        <v>1.2649999999999995E-2</v>
+      </c>
+      <c r="ACA1">
+        <v>1.2700000000000003E-2</v>
+      </c>
+      <c r="ACB1">
+        <v>1.2749999999999997E-2</v>
+      </c>
+      <c r="ACC1">
+        <v>1.2800000000000006E-2</v>
+      </c>
+      <c r="ACD1">
+        <v>1.285E-2</v>
+      </c>
+      <c r="ACE1">
+        <v>1.2899999999999995E-2</v>
+      </c>
+      <c r="ACF1">
+        <v>1.2950000000000003E-2</v>
+      </c>
+      <c r="ACG1">
         <v>1.2999999999999998E-2</v>
       </c>
-      <c r="DX1">
+      <c r="ACH1">
+        <v>1.3050000000000006E-2</v>
+      </c>
+      <c r="ACI1">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="ACJ1">
+        <v>1.3149999999999995E-2</v>
+      </c>
+      <c r="ACK1">
+        <v>1.3200000000000003E-2</v>
+      </c>
+      <c r="ACL1">
+        <v>1.3249999999999998E-2</v>
+      </c>
+      <c r="ACM1">
+        <v>1.3300000000000006E-2</v>
+      </c>
+      <c r="ACN1">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="ACO1">
+        <v>1.3400000000000002E-2</v>
+      </c>
+      <c r="ACP1">
+        <v>1.3450000000000004E-2</v>
+      </c>
+      <c r="ACQ1">
         <v>1.3499999999999998E-2</v>
       </c>
-      <c r="DY1">
+      <c r="ACR1">
+        <v>1.355E-2</v>
+      </c>
+      <c r="ACS1">
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="ACT1">
+        <v>1.3650000000000002E-2</v>
+      </c>
+      <c r="ACU1">
+        <v>1.3700000000000004E-2</v>
+      </c>
+      <c r="ACV1">
+        <v>1.3749999999999998E-2</v>
+      </c>
+      <c r="ACW1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="ACX1">
+        <v>1.3850000000000001E-2</v>
+      </c>
+      <c r="ACY1">
+        <v>1.3900000000000003E-2</v>
+      </c>
+      <c r="ACZ1">
+        <v>1.3950000000000004E-2</v>
+      </c>
+      <c r="ADA1">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="DZ1">
+      <c r="ADB1">
+        <v>1.405E-2</v>
+      </c>
+      <c r="ADC1">
+        <v>1.4100000000000001E-2</v>
+      </c>
+      <c r="ADD1">
+        <v>1.4150000000000003E-2</v>
+      </c>
+      <c r="ADE1">
+        <v>1.4200000000000004E-2</v>
+      </c>
+      <c r="ADF1">
+        <v>1.4249999999999999E-2</v>
+      </c>
+      <c r="ADG1">
+        <v>1.43E-2</v>
+      </c>
+      <c r="ADH1">
+        <v>1.4350000000000002E-2</v>
+      </c>
+      <c r="ADI1">
+        <v>1.4400000000000003E-2</v>
+      </c>
+      <c r="ADJ1">
+        <v>1.4450000000000005E-2</v>
+      </c>
+      <c r="ADK1">
         <v>1.4499999999999999E-2</v>
       </c>
-      <c r="EA1">
+      <c r="ADL1">
+        <v>1.455E-2</v>
+      </c>
+      <c r="ADM1">
+        <v>1.4600000000000002E-2</v>
+      </c>
+      <c r="ADN1">
+        <v>1.4650000000000003E-2</v>
+      </c>
+      <c r="ADO1">
+        <v>1.4700000000000005E-2</v>
+      </c>
+      <c r="ADP1">
+        <v>1.4749999999999999E-2</v>
+      </c>
+      <c r="ADQ1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="ADR1">
+        <v>1.4850000000000002E-2</v>
+      </c>
+      <c r="ADS1">
+        <v>1.4900000000000004E-2</v>
+      </c>
+      <c r="ADT1">
+        <v>1.4949999999999998E-2</v>
+      </c>
+      <c r="ADU1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="EB1">
+      <c r="ADV1">
+        <v>1.5050000000000001E-2</v>
+      </c>
+      <c r="ADW1">
+        <v>1.5100000000000002E-2</v>
+      </c>
+      <c r="ADX1">
+        <v>1.5150000000000004E-2</v>
+      </c>
+      <c r="ADY1">
+        <v>1.5199999999999998E-2</v>
+      </c>
+      <c r="ADZ1">
+        <v>1.525E-2</v>
+      </c>
+      <c r="AEA1">
+        <v>1.5300000000000001E-2</v>
+      </c>
+      <c r="AEB1">
+        <v>1.5350000000000003E-2</v>
+      </c>
+      <c r="AEC1">
+        <v>1.5400000000000004E-2</v>
+      </c>
+      <c r="AED1">
+        <v>1.5449999999999998E-2</v>
+      </c>
+      <c r="AEE1">
         <v>1.55E-2</v>
       </c>
-      <c r="EC1">
+      <c r="AEF1">
+        <v>1.5550000000000001E-2</v>
+      </c>
+      <c r="AEG1">
+        <v>1.5600000000000003E-2</v>
+      </c>
+      <c r="AEH1">
+        <v>1.5650000000000004E-2</v>
+      </c>
+      <c r="AEI1">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="AEJ1">
+        <v>1.575E-2</v>
+      </c>
+      <c r="AEK1">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="AEL1">
+        <v>1.5850000000000003E-2</v>
+      </c>
+      <c r="AEM1">
+        <v>1.5900000000000004E-2</v>
+      </c>
+      <c r="AEN1">
+        <v>1.5949999999999999E-2</v>
+      </c>
+      <c r="AEO1">
         <v>1.6E-2</v>
       </c>
-      <c r="ED1">
+      <c r="AEP1">
+        <v>1.6050000000000002E-2</v>
+      </c>
+      <c r="AEQ1">
+        <v>1.6100000000000003E-2</v>
+      </c>
+      <c r="AER1">
+        <v>1.6150000000000005E-2</v>
+      </c>
+      <c r="AES1">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="AET1">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="AEU1">
+        <v>1.6300000000000002E-2</v>
+      </c>
+      <c r="AEV1">
+        <v>1.6350000000000003E-2</v>
+      </c>
+      <c r="AEW1">
+        <v>1.6400000000000005E-2</v>
+      </c>
+      <c r="AEX1">
+        <v>1.6449999999999999E-2</v>
+      </c>
+      <c r="AEY1">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="EE1">
+      <c r="AEZ1">
+        <v>1.6550000000000002E-2</v>
+      </c>
+      <c r="AFA1">
+        <v>1.6599999999999997E-2</v>
+      </c>
+      <c r="AFB1">
+        <v>1.6650000000000005E-2</v>
+      </c>
+      <c r="AFC1">
+        <v>1.67E-2</v>
+      </c>
+      <c r="AFD1">
+        <v>1.6750000000000001E-2</v>
+      </c>
+      <c r="AFE1">
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="AFF1">
+        <v>1.6849999999999997E-2</v>
+      </c>
+      <c r="AFG1">
+        <v>1.6900000000000005E-2</v>
+      </c>
+      <c r="AFH1">
+        <v>1.695E-2</v>
+      </c>
+      <c r="AFI1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="EF1">
+      <c r="AFJ1">
+        <v>1.7050000000000003E-2</v>
+      </c>
+      <c r="AFK1">
+        <v>1.7099999999999997E-2</v>
+      </c>
+      <c r="AFL1">
+        <v>1.7150000000000006E-2</v>
+      </c>
+      <c r="AFM1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="AFN1">
+        <v>1.7250000000000001E-2</v>
+      </c>
+      <c r="AFO1">
+        <v>1.7300000000000003E-2</v>
+      </c>
+      <c r="AFP1">
+        <v>1.7349999999999997E-2</v>
+      </c>
+      <c r="AFQ1">
+        <v>1.7400000000000006E-2</v>
+      </c>
+      <c r="AFR1">
+        <v>1.745E-2</v>
+      </c>
+      <c r="AFS1">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="EG1">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="EH1">
-        <v>1.8500000000000003E-2</v>
-      </c>
-      <c r="EI1">
-        <v>1.9000000000000003E-2</v>
-      </c>
-      <c r="EJ1">
-        <v>1.9500000000000003E-2</v>
-      </c>
-      <c r="EK1">
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="EL1">
-        <v>2.0500000000000004E-2</v>
-      </c>
-      <c r="EM1">
-        <v>2.1000000000000005E-2</v>
-      </c>
-      <c r="EN1">
-        <v>2.1500000000000005E-2</v>
-      </c>
-      <c r="EO1">
-        <v>2.2000000000000006E-2</v>
-      </c>
-      <c r="EP1">
-        <v>2.2499999999999992E-2</v>
-      </c>
-      <c r="EQ1">
-        <v>2.3000000000000007E-2</v>
-      </c>
-      <c r="ER1">
-        <v>2.3500000000000007E-2</v>
-      </c>
-      <c r="ES1">
-        <v>2.4000000000000007E-2</v>
-      </c>
-      <c r="ET1">
-        <v>2.4499999999999994E-2</v>
-      </c>
-      <c r="EU1">
-        <v>2.4999999999999994E-2</v>
-      </c>
-      <c r="EV1">
-        <v>2.5500000000000009E-2</v>
-      </c>
-      <c r="EW1">
-        <v>2.6000000000000009E-2</v>
-      </c>
-      <c r="EX1">
-        <v>2.6499999999999996E-2</v>
-      </c>
-      <c r="EY1">
-        <v>2.6999999999999996E-2</v>
-      </c>
-      <c r="EZ1">
-        <v>2.7499999999999997E-2</v>
-      </c>
-      <c r="FA1">
-        <v>2.8000000000000011E-2</v>
-      </c>
-      <c r="FB1">
-        <v>2.8499999999999998E-2</v>
-      </c>
-      <c r="FC1">
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="FD1">
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="FE1">
-        <v>0.03</v>
-      </c>
-      <c r="FF1">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="FG1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="FH1">
-        <v>3.15E-2</v>
-      </c>
-      <c r="FI1">
-        <v>3.2000000000000015E-2</v>
-      </c>
-      <c r="FJ1">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="FK1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="FL1">
-        <v>3.3499999999999988E-2</v>
-      </c>
-      <c r="FM1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="FN1">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="FO1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="FP1">
-        <v>3.5500000000000004E-2</v>
-      </c>
-      <c r="FQ1">
-        <v>3.599999999999999E-2</v>
-      </c>
-      <c r="FR1">
-        <v>3.6500000000000005E-2</v>
-      </c>
-      <c r="FS1">
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="FT1">
-        <v>3.7499999999999992E-2</v>
-      </c>
-      <c r="FU1">
-        <v>3.8000000000000006E-2</v>
-      </c>
-      <c r="FV1">
-        <v>3.8499999999999993E-2</v>
-      </c>
-      <c r="FW1">
-        <v>3.9000000000000007E-2</v>
-      </c>
-      <c r="FX1">
-        <v>3.9500000000000007E-2</v>
-      </c>
-      <c r="FY1">
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="FZ1">
-        <v>4.0500000000000008E-2</v>
-      </c>
-      <c r="GA1">
-        <v>4.0999999999999995E-2</v>
-      </c>
-      <c r="GB1">
-        <v>4.1499999999999995E-2</v>
-      </c>
-      <c r="GC1">
-        <v>4.200000000000001E-2</v>
-      </c>
-      <c r="GD1">
-        <v>4.2499999999999996E-2</v>
-      </c>
-      <c r="GE1">
-        <v>4.300000000000001E-2</v>
-      </c>
-      <c r="GF1">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="GG1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="GH1">
-        <v>4.4500000000000012E-2</v>
-      </c>
-      <c r="GI1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="GJ1">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="GK1">
-        <v>4.6000000000000013E-2</v>
-      </c>
-      <c r="GL1">
-        <v>4.65E-2</v>
-      </c>
-      <c r="GM1">
-        <v>4.7000000000000014E-2</v>
-      </c>
-      <c r="GN1">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="GO1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="GP1">
-        <v>4.8500000000000015E-2</v>
-      </c>
-      <c r="GQ1">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="GR1">
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="GS1">
-        <v>0.05</v>
+      <c r="AFT1">
+        <v>1.7550000000000003E-2</v>
+      </c>
+      <c r="AFU1">
+        <v>1.7599999999999998E-2</v>
+      </c>
+      <c r="AFV1">
+        <v>1.7650000000000006E-2</v>
+      </c>
+      <c r="AFW1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="AFX1">
+        <v>1.7750000000000002E-2</v>
+      </c>
+      <c r="AFY1">
+        <v>1.7800000000000003E-2</v>
+      </c>
+      <c r="AFZ1">
+        <v>1.7849999999999998E-2</v>
+      </c>
+      <c r="AGA1">
+        <v>1.7900000000000006E-2</v>
+      </c>
+      <c r="AGB1">
+        <v>1.7950000000000001E-2</v>
+      </c>
+      <c r="AGC1">
+        <v>1.7999999999999995E-2</v>
+      </c>
+      <c r="AGD1">
+        <v>1.8050000000000004E-2</v>
+      </c>
+      <c r="AGE1">
+        <v>1.8099999999999998E-2</v>
+      </c>
+      <c r="AGF1">
+        <v>1.8150000000000006E-2</v>
+      </c>
+      <c r="AGG1">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="AGH1">
+        <v>1.8249999999999995E-2</v>
+      </c>
+      <c r="AGI1">
+        <v>1.8300000000000004E-2</v>
+      </c>
+      <c r="AGJ1">
+        <v>1.8349999999999998E-2</v>
+      </c>
+      <c r="AGK1">
+        <v>1.8400000000000007E-2</v>
+      </c>
+      <c r="AGL1">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AGM1">
+        <v>1.8499999999999996E-2</v>
+      </c>
+      <c r="AGN1">
+        <v>1.8550000000000004E-2</v>
+      </c>
+      <c r="AGO1">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="AGP1">
+        <v>1.8650000000000007E-2</v>
+      </c>
+      <c r="AGQ1">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="AGR1">
+        <v>1.8749999999999996E-2</v>
+      </c>
+      <c r="AGS1">
+        <v>1.8800000000000004E-2</v>
+      </c>
+      <c r="AGT1">
+        <v>1.8849999999999999E-2</v>
+      </c>
+      <c r="AGU1">
+        <v>1.8900000000000007E-2</v>
+      </c>
+      <c r="AGV1">
+        <v>1.8950000000000002E-2</v>
+      </c>
+      <c r="AGW1">
+        <v>1.8999999999999996E-2</v>
+      </c>
+      <c r="AGX1">
+        <v>1.9050000000000004E-2</v>
+      </c>
+      <c r="AGY1">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="AGZ1">
+        <v>1.9150000000000007E-2</v>
+      </c>
+      <c r="AHA1">
+        <v>1.9200000000000002E-2</v>
+      </c>
+      <c r="AHB1">
+        <v>1.9249999999999996E-2</v>
+      </c>
+      <c r="AHC1">
+        <v>1.9300000000000005E-2</v>
+      </c>
+      <c r="AHD1">
+        <v>1.9349999999999999E-2</v>
+      </c>
+      <c r="AHE1">
+        <v>1.9400000000000008E-2</v>
+      </c>
+      <c r="AHF1">
+        <v>1.9450000000000002E-2</v>
+      </c>
+      <c r="AHG1">
+        <v>1.9499999999999997E-2</v>
+      </c>
+      <c r="AHH1">
+        <v>1.9550000000000005E-2</v>
+      </c>
+      <c r="AHI1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="AHJ1">
+        <v>1.9650000000000008E-2</v>
+      </c>
+      <c r="AHK1">
+        <v>1.9700000000000002E-2</v>
+      </c>
+      <c r="AHL1">
+        <v>1.9749999999999997E-2</v>
+      </c>
+      <c r="AHM1">
+        <v>1.9800000000000005E-2</v>
+      </c>
+      <c r="AHN1">
+        <v>1.985E-2</v>
+      </c>
+      <c r="AHO1">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="AHP1">
+        <v>1.9950000000000002E-2</v>
+      </c>
+      <c r="AHQ1">
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="AHR1">
+        <v>2.0050000000000005E-2</v>
+      </c>
+      <c r="AHS1">
+        <v>2.01E-2</v>
+      </c>
+      <c r="AHT1">
+        <v>2.0150000000000001E-2</v>
+      </c>
+      <c r="AHU1">
+        <v>2.0200000000000003E-2</v>
+      </c>
+      <c r="AHV1">
+        <v>2.0249999999999997E-2</v>
+      </c>
+      <c r="AHW1">
+        <v>2.0300000000000006E-2</v>
+      </c>
+      <c r="AHX1">
+        <v>2.035E-2</v>
+      </c>
+      <c r="AHY1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="AHZ1">
+        <v>2.0450000000000003E-2</v>
+      </c>
+      <c r="AIA1">
+        <v>2.0499999999999997E-2</v>
+      </c>
+      <c r="AIB1">
+        <v>2.0550000000000006E-2</v>
+      </c>
+      <c r="AIC1">
+        <v>2.06E-2</v>
+      </c>
+      <c r="AID1">
+        <v>2.0650000000000002E-2</v>
+      </c>
+      <c r="AIE1">
+        <v>2.0700000000000003E-2</v>
+      </c>
+      <c r="AIF1">
+        <v>2.0749999999999998E-2</v>
+      </c>
+      <c r="AIG1">
+        <v>2.0800000000000006E-2</v>
+      </c>
+      <c r="AIH1">
+        <v>2.085E-2</v>
+      </c>
+      <c r="AII1">
+        <v>2.0900000000000002E-2</v>
+      </c>
+      <c r="AIJ1">
+        <v>2.0950000000000003E-2</v>
+      </c>
+      <c r="AIK1">
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="AIL1">
+        <v>2.1050000000000006E-2</v>
+      </c>
+      <c r="AIM1">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="AIN1">
+        <v>2.1150000000000002E-2</v>
+      </c>
+      <c r="AIO1">
+        <v>2.1200000000000004E-2</v>
+      </c>
+      <c r="AIP1">
+        <v>2.1249999999999998E-2</v>
+      </c>
+      <c r="AIQ1">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="AIR1">
+        <v>2.1350000000000001E-2</v>
+      </c>
+      <c r="AIS1">
+        <v>2.1400000000000002E-2</v>
+      </c>
+      <c r="AIT1">
+        <v>2.1450000000000004E-2</v>
+      </c>
+      <c r="AIU1">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="AIV1">
+        <v>2.155E-2</v>
+      </c>
+      <c r="AIW1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="AIX1">
+        <v>2.1650000000000003E-2</v>
+      </c>
+      <c r="AIY1">
+        <v>2.1700000000000004E-2</v>
+      </c>
+      <c r="AIZ1">
+        <v>2.1749999999999999E-2</v>
+      </c>
+      <c r="AJA1">
+        <v>2.18E-2</v>
+      </c>
+      <c r="AJB1">
+        <v>2.1850000000000001E-2</v>
+      </c>
+      <c r="AJC1">
+        <v>2.1900000000000003E-2</v>
+      </c>
+      <c r="AJD1">
+        <v>2.1950000000000004E-2</v>
+      </c>
+      <c r="AJE1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AJF1">
+        <v>2.205E-2</v>
+      </c>
+      <c r="AJG1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="AJH1">
+        <v>2.2150000000000003E-2</v>
+      </c>
+      <c r="AJI1">
+        <v>2.2200000000000004E-2</v>
+      </c>
+      <c r="AJJ1">
+        <v>2.2249999999999999E-2</v>
+      </c>
+      <c r="AJK1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="AJL1">
+        <v>2.2350000000000002E-2</v>
+      </c>
+      <c r="AJM1">
+        <v>2.2400000000000003E-2</v>
+      </c>
+      <c r="AJN1">
+        <v>2.2450000000000005E-2</v>
+      </c>
+      <c r="AJO1">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="AJP1">
+        <v>2.2550000000000001E-2</v>
+      </c>
+      <c r="AJQ1">
+        <v>2.2600000000000002E-2</v>
+      </c>
+      <c r="AJR1">
+        <v>2.2650000000000003E-2</v>
+      </c>
+      <c r="AJS1">
+        <v>2.2700000000000005E-2</v>
+      </c>
+      <c r="AJT1">
+        <v>2.2749999999999999E-2</v>
+      </c>
+      <c r="AJU1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="AJV1">
+        <v>2.2850000000000002E-2</v>
+      </c>
+      <c r="AJW1">
+        <v>2.2900000000000004E-2</v>
+      </c>
+      <c r="AJX1">
+        <v>2.2949999999999998E-2</v>
+      </c>
+      <c r="AJY1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AJZ1">
+        <v>2.3050000000000001E-2</v>
+      </c>
+      <c r="AKA1">
+        <v>2.3100000000000002E-2</v>
+      </c>
+      <c r="AKB1">
+        <v>2.3150000000000004E-2</v>
+      </c>
+      <c r="AKC1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="AKD1">
+        <v>2.325E-2</v>
+      </c>
+      <c r="AKE1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="AKF1">
+        <v>2.3350000000000003E-2</v>
+      </c>
+      <c r="AKG1">
+        <v>2.3400000000000004E-2</v>
+      </c>
+      <c r="AKH1">
+        <v>2.3449999999999999E-2</v>
+      </c>
+      <c r="AKI1">
+        <v>2.35E-2</v>
+      </c>
+      <c r="AKJ1">
+        <v>2.3550000000000001E-2</v>
+      </c>
+      <c r="AKK1">
+        <v>2.3600000000000003E-2</v>
+      </c>
+      <c r="AKL1">
+        <v>2.3650000000000004E-2</v>
+      </c>
+      <c r="AKM1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="AKN1">
+        <v>2.375E-2</v>
+      </c>
+      <c r="AKO1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="AKP1">
+        <v>2.3850000000000003E-2</v>
+      </c>
+      <c r="AKQ1">
+        <v>2.3900000000000005E-2</v>
+      </c>
+      <c r="AKR1">
+        <v>2.3949999999999999E-2</v>
+      </c>
+      <c r="AKS1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AKT1">
+        <v>2.4050000000000002E-2</v>
+      </c>
+      <c r="AKU1">
+        <v>2.4100000000000003E-2</v>
+      </c>
+      <c r="AKV1">
+        <v>2.4150000000000005E-2</v>
+      </c>
+      <c r="AKW1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="AKX1">
+        <v>2.4250000000000001E-2</v>
+      </c>
+      <c r="AKY1">
+        <v>2.4300000000000002E-2</v>
+      </c>
+      <c r="AKZ1">
+        <v>2.4349999999999997E-2</v>
+      </c>
+      <c r="ALA1">
+        <v>2.4400000000000005E-2</v>
+      </c>
+      <c r="ALB1">
+        <v>2.445E-2</v>
+      </c>
+      <c r="ALC1">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="ALD1">
+        <v>2.4550000000000002E-2</v>
+      </c>
+      <c r="ALE1">
+        <v>2.4599999999999997E-2</v>
+      </c>
+      <c r="ALF1">
+        <v>2.4650000000000005E-2</v>
+      </c>
+      <c r="ALG1">
+        <v>2.47E-2</v>
+      </c>
+      <c r="ALH1">
+        <v>2.4750000000000001E-2</v>
+      </c>
+      <c r="ALI1">
+        <v>2.4800000000000003E-2</v>
+      </c>
+      <c r="ALJ1">
+        <v>2.4849999999999997E-2</v>
+      </c>
+      <c r="ALK1">
+        <v>2.4900000000000005E-2</v>
+      </c>
+      <c r="ALL1">
+        <v>2.495E-2</v>
+      </c>
+      <c r="ALM1">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
